--- a/excelFile/inputexcel.xlsx
+++ b/excelFile/inputexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2303651\eclipse-workspace\Hackathon_Policy_Bazar\excelFile\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6088F546-9F78-4379-8DF2-CA91F5178288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F40125A7-A409-4464-8A4D-CDBC2630DBD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A80F16B-1A97-44B1-8EEB-24EDBDC2492A}"/>
   </bookViews>
@@ -413,7 +413,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -423,7 +423,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>8975439543</v>
+        <v>9876543230</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
